--- a/WepApi/data/siparis_ve_bayi_koordinatlari.xlsx
+++ b/WepApi/data/siparis_ve_bayi_koordinatlari.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cilekler-Cicek-Sepeti-Hackathon\WepApi\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0AD4D-8BB4-4F1E-9C64-9C60F4F44879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Siparişler" sheetId="1" r:id="rId1"/>
@@ -839,16 +845,16 @@
     <t>Mavi</t>
   </si>
   <si>
-    <t xml:space="preserve">Kırmızı </t>
-  </si>
-  <si>
     <t>Bayi Adı</t>
+  </si>
+  <si>
+    <t>Kırmızı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,14 +1007,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1046,9 +1055,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,9 +1090,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,9 +1142,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1291,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2428,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -2436,7 +2479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2459,7 +2502,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>266</v>

--- a/WepApi/data/siparis_ve_bayi_koordinatlari.xlsx
+++ b/WepApi/data/siparis_ve_bayi_koordinatlari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cilekler-Cicek-Sepeti-Hackathon\WepApi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0AD4D-8BB4-4F1E-9C64-9C60F4F44879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48717EB5-83A8-4E81-BB93-4D7F09A7DA58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,16 +839,16 @@
     <t>29.026108</t>
   </si>
   <si>
-    <t>Yeşil</t>
-  </si>
-  <si>
     <t>Mavi</t>
   </si>
   <si>
     <t>Bayi Adı</t>
   </si>
   <si>
-    <t>Kırmızı</t>
+    <t>Kirmizi</t>
+  </si>
+  <si>
+    <t>Yesil</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>266</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>268</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>270</v>
